--- a/Table/M 模型配置表.xlsx
+++ b/Table/M 模型配置表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github\trunk\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD05A12-2F1C-48AF-BB55-D6A903A48579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="-2220" yWindow="2160" windowWidth="29040" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>模型路径</t>
   </si>
@@ -33,14 +39,34 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +80,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,11 +132,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -90,6 +154,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -379,53 +451,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="12" ySplit="20" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="1" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="10.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
         <v>1001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -434,12 +530,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
